--- a/csv/kdcData.xlsx
+++ b/csv/kdcData.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>x0</t>
   </si>
@@ -123,6 +125,39 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>x31</t>
+  </si>
+  <si>
+    <t>x32</t>
+  </si>
+  <si>
+    <t>x33</t>
+  </si>
+  <si>
+    <t>x34</t>
+  </si>
+  <si>
+    <t>x35</t>
+  </si>
+  <si>
+    <t>x36</t>
+  </si>
+  <si>
+    <t>x37</t>
+  </si>
+  <si>
+    <t>x38</t>
+  </si>
+  <si>
+    <t>x39</t>
+  </si>
+  <si>
+    <t>x40</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
@@ -155,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +227,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,11 +272,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -215,6 +406,31 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,4 +1802,1534 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="33"/>
+    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="4" max="9" width="9.140625" style="19"/>
+    <col min="10" max="10" width="9.140625" style="20"/>
+    <col min="11" max="11" width="9.140625" style="21"/>
+    <col min="12" max="13" width="9.140625" style="22"/>
+    <col min="14" max="14" width="9.140625" style="23"/>
+    <col min="15" max="15" width="9.140625" style="25"/>
+    <col min="16" max="16" width="9.140625" style="26"/>
+    <col min="17" max="17" width="9.140625" style="27"/>
+    <col min="18" max="18" width="9.140625" style="28"/>
+    <col min="19" max="19" width="9.140625" style="29"/>
+    <col min="20" max="20" width="9.140625" style="30"/>
+    <col min="21" max="21" width="9.140625" style="31"/>
+    <col min="22" max="22" width="9.140625" style="2"/>
+    <col min="23" max="30" width="9.140625" style="9"/>
+    <col min="31" max="34" width="9.140625" style="10"/>
+    <col min="35" max="35" width="9.140625" style="11"/>
+    <col min="36" max="38" width="9.140625" style="12"/>
+    <col min="39" max="41" width="9.140625" style="13"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="G2" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="H2" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="I2" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="21">
+        <f>7/4</f>
+        <v>1.75</v>
+      </c>
+      <c r="L2" s="22">
+        <f>6/4</f>
+        <v>1.5</v>
+      </c>
+      <c r="M2" s="22">
+        <f>9/4</f>
+        <v>2.25</v>
+      </c>
+      <c r="N2" s="23">
+        <f>7/4</f>
+        <v>1.75</v>
+      </c>
+      <c r="O2" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>0</v>
+      </c>
+      <c r="R2" s="28">
+        <v>0</v>
+      </c>
+      <c r="S2" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="T2" s="30">
+        <v>1</v>
+      </c>
+      <c r="U2" s="31">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="W2" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X2" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="10">
+        <f>6/4</f>
+        <v>1.5</v>
+      </c>
+      <c r="AF2" s="10">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="AG2" s="10">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+      <c r="AH2" s="10">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="AN2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19">
+        <v>2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="K3" s="21">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="22">
+        <f>12/4</f>
+        <v>3</v>
+      </c>
+      <c r="M3" s="22">
+        <f>5/4</f>
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="23">
+        <f>10/4</f>
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="25">
+        <v>3.25</v>
+      </c>
+      <c r="P3" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28">
+        <v>0</v>
+      </c>
+      <c r="S3" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="T3" s="30">
+        <v>1</v>
+      </c>
+      <c r="U3" s="31">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="AE3" s="10">
+        <f>6/4</f>
+        <v>1.5</v>
+      </c>
+      <c r="AF3" s="10">
+        <f>8/4</f>
+        <v>2</v>
+      </c>
+      <c r="AG3" s="10">
+        <f>8/4</f>
+        <v>2</v>
+      </c>
+      <c r="AH3" s="10">
+        <f>7/4</f>
+        <v>1.75</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="AN3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="19">
+        <v>5</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="21">
+        <f>13/4</f>
+        <v>3.25</v>
+      </c>
+      <c r="L4" s="22">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="22">
+        <f>11/4</f>
+        <v>2.75</v>
+      </c>
+      <c r="N4" s="23">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="32">
+        <v>43058</v>
+      </c>
+      <c r="C2" s="32">
+        <v>43029</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2-7</f>
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <f>D2/4</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="32">
+        <v>43036</v>
+      </c>
+      <c r="C3" s="32">
+        <v>43044</v>
+      </c>
+      <c r="D3">
+        <f>C3-B3</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/csv/kdcData.xlsx
+++ b/csv/kdcData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KdcProject\kdc\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hieuht\hihihaha\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1810,7 +1810,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,6 +2295,9 @@
         <f>4/4</f>
         <v>1</v>
       </c>
+      <c r="P4" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">

--- a/csv/kdcData.xlsx
+++ b/csv/kdcData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1810,7 +1810,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/csv/kdcData.xlsx
+++ b/csv/kdcData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>x0</t>
   </si>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t>x38</t>
-  </si>
-  <si>
-    <t>x39</t>
-  </si>
-  <si>
-    <t>x40</t>
   </si>
   <si>
     <t>sum</t>
@@ -264,27 +258,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -307,36 +286,6 @@
         <color auto="1"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -396,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -412,25 +361,21 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1810,548 +1755,526 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="33"/>
-    <col min="3" max="3" width="9.140625" style="18"/>
-    <col min="4" max="9" width="9.140625" style="19"/>
-    <col min="10" max="10" width="9.140625" style="20"/>
-    <col min="11" max="11" width="9.140625" style="21"/>
-    <col min="12" max="13" width="9.140625" style="22"/>
-    <col min="14" max="14" width="9.140625" style="23"/>
-    <col min="15" max="15" width="9.140625" style="25"/>
-    <col min="16" max="16" width="9.140625" style="26"/>
-    <col min="17" max="17" width="9.140625" style="27"/>
-    <col min="18" max="18" width="9.140625" style="28"/>
-    <col min="19" max="19" width="9.140625" style="29"/>
-    <col min="20" max="20" width="9.140625" style="30"/>
-    <col min="21" max="21" width="9.140625" style="31"/>
-    <col min="22" max="22" width="9.140625" style="2"/>
-    <col min="23" max="30" width="9.140625" style="9"/>
-    <col min="31" max="34" width="9.140625" style="10"/>
-    <col min="35" max="35" width="9.140625" style="11"/>
-    <col min="36" max="38" width="9.140625" style="12"/>
-    <col min="39" max="41" width="9.140625" style="13"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="16"/>
+    <col min="3" max="8" width="9.140625" style="17"/>
+    <col min="9" max="9" width="9.140625" style="18"/>
+    <col min="10" max="10" width="9.140625" style="19"/>
+    <col min="11" max="12" width="9.140625" style="20"/>
+    <col min="13" max="13" width="9.140625" style="21"/>
+    <col min="14" max="14" width="9.140625" style="22"/>
+    <col min="15" max="15" width="9.140625" style="23"/>
+    <col min="16" max="16" width="9.140625" style="24"/>
+    <col min="17" max="17" width="9.140625" style="25"/>
+    <col min="18" max="18" width="9.140625" style="26"/>
+    <col min="19" max="19" width="9.140625" style="27"/>
+    <col min="20" max="20" width="9.140625" style="28"/>
+    <col min="21" max="28" width="9.140625" style="9"/>
+    <col min="29" max="32" width="9.140625" style="10"/>
+    <col min="33" max="33" width="9.140625" style="11"/>
+    <col min="34" max="36" width="9.140625" style="12"/>
+    <col min="37" max="39" width="9.140625" style="13"/>
+    <col min="40" max="41" width="9.140625" style="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="15" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="15" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="15" t="s">
         <v>33</v>
       </c>
       <c r="AG1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AH1" s="15" t="s">
         <v>35</v>
       </c>
       <c r="AI1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>37</v>
       </c>
       <c r="AK1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AL1" s="15" t="s">
         <v>39</v>
       </c>
       <c r="AM1" s="14" t="s">
         <v>40</v>
       </c>
       <c r="AN1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="16">
         <v>1.8</v>
       </c>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17">
         <v>1.5</v>
       </c>
-      <c r="F2" s="19">
+      <c r="E2" s="17">
         <v>1.25</v>
       </c>
-      <c r="G2" s="19">
+      <c r="F2" s="17">
         <v>1.6</v>
       </c>
-      <c r="H2" s="19">
+      <c r="G2" s="17">
         <v>1.2</v>
       </c>
-      <c r="I2" s="19">
+      <c r="H2" s="17">
         <v>1.5</v>
       </c>
-      <c r="J2" s="20">
+      <c r="I2" s="18">
         <v>0.75</v>
       </c>
-      <c r="K2" s="21">
+      <c r="J2" s="19">
         <f>7/4</f>
         <v>1.75</v>
       </c>
-      <c r="L2" s="22">
+      <c r="K2" s="20">
         <f>6/4</f>
         <v>1.5</v>
       </c>
-      <c r="M2" s="22">
+      <c r="L2" s="20">
         <f>9/4</f>
         <v>2.25</v>
       </c>
-      <c r="N2" s="23">
+      <c r="M2" s="21">
         <f>7/4</f>
         <v>1.75</v>
       </c>
-      <c r="O2" s="25">
+      <c r="N2" s="22">
         <v>0.35</v>
       </c>
-      <c r="P2" s="26">
+      <c r="O2" s="23">
         <v>0.4</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="P2" s="24">
         <v>0</v>
       </c>
-      <c r="R2" s="28">
+      <c r="Q2" s="25">
         <v>0</v>
       </c>
-      <c r="S2" s="29">
+      <c r="R2" s="26">
         <v>0.7</v>
       </c>
-      <c r="T2" s="30">
-        <v>1</v>
-      </c>
-      <c r="U2" s="31">
+      <c r="S2" s="27">
+        <v>1</v>
+      </c>
+      <c r="T2" s="28">
         <v>0</v>
       </c>
-      <c r="V2" s="2">
-        <v>1.2</v>
+      <c r="U2" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0.4</v>
       </c>
       <c r="W2" s="9">
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="X2" s="9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y2" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z2" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA2" s="9">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="10">
         <f>6/4</f>
         <v>1.5</v>
+      </c>
+      <c r="AD2" s="10">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="AE2" s="10">
+        <f>4/4</f>
+        <v>1</v>
       </c>
       <c r="AF2" s="10">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="AG2" s="10">
-        <f>4/4</f>
-        <v>1</v>
-      </c>
-      <c r="AH2" s="10">
-        <f>2/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="AI2" s="11">
+      <c r="AG2" s="11">
         <v>0.375</v>
       </c>
+      <c r="AH2" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>0</v>
+      </c>
       <c r="AJ2" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="AK2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="AL2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
         <v>0</v>
       </c>
-      <c r="AL2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="13">
+      <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
         <v>0.7</v>
       </c>
-      <c r="AN2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="D3" s="17">
         <v>0.75</v>
       </c>
-      <c r="F3" s="19">
+      <c r="E3" s="17">
         <v>2.25</v>
       </c>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19">
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
         <v>2</v>
       </c>
-      <c r="I3" s="19">
-        <v>1</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
         <v>2.5</v>
       </c>
-      <c r="K3" s="21">
+      <c r="J3" s="19">
         <f>3/4</f>
         <v>0.75</v>
       </c>
-      <c r="L3" s="22">
+      <c r="K3" s="20">
         <f>12/4</f>
         <v>3</v>
       </c>
-      <c r="M3" s="22">
+      <c r="L3" s="20">
         <f>5/4</f>
         <v>1.25</v>
       </c>
-      <c r="N3" s="23">
+      <c r="M3" s="21">
         <f>10/4</f>
         <v>2.5</v>
       </c>
-      <c r="O3" s="25">
+      <c r="N3" s="22">
         <v>3.25</v>
       </c>
-      <c r="P3" s="26">
+      <c r="O3" s="23">
         <v>0.2</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="P3" s="24">
         <v>0</v>
       </c>
-      <c r="R3" s="28">
+      <c r="Q3" s="25">
         <v>0</v>
       </c>
-      <c r="S3" s="29">
+      <c r="R3" s="26">
         <v>0.7</v>
       </c>
-      <c r="T3" s="30">
-        <v>1</v>
-      </c>
-      <c r="U3" s="31">
+      <c r="S3" s="27">
+        <v>1</v>
+      </c>
+      <c r="T3" s="28">
         <v>0</v>
       </c>
-      <c r="V3" s="2">
-        <v>1.8</v>
+      <c r="U3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0.18</v>
       </c>
       <c r="W3" s="9">
         <v>1.5</v>
       </c>
       <c r="X3" s="9">
-        <v>0.18</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="9">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AA3" s="9">
         <v>2</v>
       </c>
       <c r="AB3" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="9">
         <v>1.75</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AC3" s="10">
         <f>6/4</f>
         <v>1.5</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AD3" s="10">
         <f>8/4</f>
         <v>2</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AE3" s="10">
         <f>8/4</f>
         <v>2</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AF3" s="10">
         <f>7/4</f>
         <v>1.75</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AG3" s="11">
         <v>0.55000000000000004</v>
       </c>
+      <c r="AH3" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>1</v>
+      </c>
       <c r="AJ3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="13">
         <v>0.7</v>
       </c>
-      <c r="AK3" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="12">
+      <c r="AL3" s="13">
         <v>1</v>
       </c>
       <c r="AM3" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="AN3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="16">
         <v>3.5</v>
       </c>
-      <c r="D4" s="19">
+      <c r="C4" s="17">
         <v>0.6</v>
       </c>
-      <c r="E4" s="19">
+      <c r="D4" s="17">
         <v>3.5</v>
       </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
         <v>4.2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="G4" s="17">
         <v>0.6</v>
       </c>
-      <c r="I4" s="19">
+      <c r="H4" s="17">
         <v>5</v>
       </c>
-      <c r="J4" s="20">
+      <c r="I4" s="18">
         <v>0.5</v>
       </c>
-      <c r="K4" s="21">
+      <c r="J4" s="19">
         <f>13/4</f>
         <v>3.25</v>
       </c>
-      <c r="L4" s="22">
+      <c r="K4" s="20">
         <f>3/4</f>
         <v>0.75</v>
       </c>
-      <c r="M4" s="22">
+      <c r="L4" s="20">
         <f>11/4</f>
         <v>2.75</v>
       </c>
-      <c r="N4" s="23">
+      <c r="M4" s="21">
         <f>4/4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -3297,15 +3220,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="32">
+      <c r="B2" s="29">
         <v>43058</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>43029</v>
       </c>
       <c r="D2">
@@ -3318,10 +3241,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <v>43036</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="29">
         <v>43044</v>
       </c>
       <c r="D3">
